--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Acvrl1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N2">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O2">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P2">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q2">
-        <v>1757.77954932987</v>
+        <v>1717.544091761174</v>
       </c>
       <c r="R2">
-        <v>15820.01594396883</v>
+        <v>15457.89682585057</v>
       </c>
       <c r="S2">
-        <v>0.1462608898564825</v>
+        <v>0.1488683212645937</v>
       </c>
       <c r="T2">
-        <v>0.1462608898564826</v>
+        <v>0.1488683212645938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>57.869327</v>
       </c>
       <c r="O3">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P3">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q3">
-        <v>995.1899401896345</v>
+        <v>1055.047110721711</v>
       </c>
       <c r="R3">
-        <v>8956.70946170671</v>
+        <v>9495.423996495396</v>
       </c>
       <c r="S3">
-        <v>0.08280752059258362</v>
+        <v>0.09144632325982856</v>
       </c>
       <c r="T3">
-        <v>0.08280752059258364</v>
+        <v>0.09144632325982856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N4">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O4">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P4">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q4">
-        <v>92.75133653133332</v>
+        <v>102.1806322731328</v>
       </c>
       <c r="R4">
-        <v>834.762028782</v>
+        <v>919.625690458195</v>
       </c>
       <c r="S4">
-        <v>0.007717630473982191</v>
+        <v>0.008856517433947313</v>
       </c>
       <c r="T4">
-        <v>0.007717630473982194</v>
+        <v>0.008856517433947313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N5">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P5">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q5">
-        <v>328.5632948198089</v>
+        <v>345.2119106282039</v>
       </c>
       <c r="R5">
-        <v>2957.06965337828</v>
+        <v>3106.907195653836</v>
       </c>
       <c r="S5">
-        <v>0.02733901409471043</v>
+        <v>0.02992127996147515</v>
       </c>
       <c r="T5">
-        <v>0.02733901409471044</v>
+        <v>0.02992127996147516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N6">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O6">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P6">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q6">
-        <v>658.29211652574</v>
+        <v>606.7311135461913</v>
       </c>
       <c r="R6">
-        <v>5924.62904873166</v>
+        <v>5460.580021915721</v>
       </c>
       <c r="S6">
-        <v>0.05477500906485594</v>
+        <v>0.05258848536458915</v>
       </c>
       <c r="T6">
-        <v>0.05477500906485595</v>
+        <v>0.05258848536458916</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>57.869327</v>
       </c>
       <c r="O7">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P7">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q7">
-        <v>372.7007134212689</v>
+        <v>372.700713421269</v>
       </c>
       <c r="R7">
-        <v>3354.30642079142</v>
+        <v>3354.306420791421</v>
       </c>
       <c r="S7">
-        <v>0.03101158960230392</v>
+        <v>0.03230387493822531</v>
       </c>
       <c r="T7">
-        <v>0.03101158960230393</v>
+        <v>0.03230387493822531</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N8">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O8">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P8">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q8">
-        <v>34.73556946266666</v>
+        <v>36.09582374002445</v>
       </c>
       <c r="R8">
-        <v>312.620125164</v>
+        <v>324.8624136602201</v>
       </c>
       <c r="S8">
-        <v>0.002890268749126216</v>
+        <v>0.003128609454986441</v>
       </c>
       <c r="T8">
-        <v>0.002890268749126216</v>
+        <v>0.003128609454986441</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N9">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O9">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P9">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q9">
-        <v>123.0476408956178</v>
+        <v>121.9478486459623</v>
       </c>
       <c r="R9">
-        <v>1107.42876806056</v>
+        <v>1097.53063781366</v>
       </c>
       <c r="S9">
-        <v>0.0102385179409984</v>
+        <v>0.01056984306652519</v>
       </c>
       <c r="T9">
-        <v>0.01023851794099841</v>
+        <v>0.0105698430665252</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N10">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O10">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P10">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q10">
-        <v>410.3829855251551</v>
+        <v>346.1715034381587</v>
       </c>
       <c r="R10">
-        <v>3693.446869726396</v>
+        <v>3115.543530943428</v>
       </c>
       <c r="S10">
-        <v>0.03414704686247608</v>
+        <v>0.03000445277281711</v>
       </c>
       <c r="T10">
-        <v>0.03414704686247609</v>
+        <v>0.03000445277281711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>57.869327</v>
       </c>
       <c r="O11">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P11">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q11">
-        <v>232.3437082740684</v>
+        <v>212.6450472325953</v>
       </c>
       <c r="R11">
-        <v>2091.093374466615</v>
+        <v>1913.805425093358</v>
       </c>
       <c r="S11">
-        <v>0.01933279832370089</v>
+        <v>0.01843103263467691</v>
       </c>
       <c r="T11">
-        <v>0.0193327983237009</v>
+        <v>0.0184310326346769</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N12">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O12">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P12">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q12">
-        <v>21.654348187</v>
+        <v>20.59453568960867</v>
       </c>
       <c r="R12">
-        <v>194.889133683</v>
+        <v>185.350821206478</v>
       </c>
       <c r="S12">
-        <v>0.001801809695817758</v>
+        <v>0.001785033624488818</v>
       </c>
       <c r="T12">
-        <v>0.001801809695817759</v>
+        <v>0.001785033624488818</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N13">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O13">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P13">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q13">
-        <v>76.70858721364668</v>
+        <v>69.57755942345933</v>
       </c>
       <c r="R13">
-        <v>690.3772849228201</v>
+        <v>626.198034811134</v>
       </c>
       <c r="S13">
-        <v>0.006382749321312125</v>
+        <v>0.006030642542886275</v>
       </c>
       <c r="T13">
-        <v>0.006382749321312126</v>
+        <v>0.006030642542886275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.071057</v>
+        <v>31.40242733333333</v>
       </c>
       <c r="N14">
-        <v>102.213171</v>
+        <v>94.20728199999999</v>
       </c>
       <c r="O14">
-        <v>0.5537562116045692</v>
+        <v>0.5334014788811394</v>
       </c>
       <c r="P14">
-        <v>0.5537562116045693</v>
+        <v>0.5334014788811395</v>
       </c>
       <c r="Q14">
-        <v>3828.648739744638</v>
+        <v>3483.586270243036</v>
       </c>
       <c r="R14">
-        <v>34457.83865770174</v>
+        <v>31352.27643218733</v>
       </c>
       <c r="S14">
-        <v>0.3185732658207547</v>
+        <v>0.3019402194791394</v>
       </c>
       <c r="T14">
-        <v>0.3185732658207547</v>
+        <v>0.3019402194791395</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>57.869327</v>
       </c>
       <c r="O15">
-        <v>0.3135163401556734</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="P15">
-        <v>0.3135163401556735</v>
+        <v>0.327656036225058</v>
       </c>
       <c r="Q15">
-        <v>2167.639685969828</v>
+        <v>2139.885460291749</v>
       </c>
       <c r="R15">
-        <v>19508.75717372845</v>
+        <v>19258.96914262575</v>
       </c>
       <c r="S15">
-        <v>0.180364431637085</v>
+        <v>0.1854748053923272</v>
       </c>
       <c r="T15">
-        <v>0.180364431637085</v>
+        <v>0.1854748053923272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.7978</v>
+        <v>1.868202333333333</v>
       </c>
       <c r="N16">
-        <v>5.3934</v>
+        <v>5.604607</v>
       </c>
       <c r="O16">
-        <v>0.02921960763420678</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="P16">
-        <v>0.02921960763420679</v>
+        <v>0.03173327580290011</v>
       </c>
       <c r="Q16">
-        <v>202.0232217718666</v>
+        <v>207.2465268163454</v>
       </c>
       <c r="R16">
-        <v>1818.2089959468</v>
+        <v>1865.218741347109</v>
       </c>
       <c r="S16">
-        <v>0.01680989871528062</v>
+        <v>0.01796311528947753</v>
       </c>
       <c r="T16">
-        <v>0.01680989871528062</v>
+        <v>0.01796311528947753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.368545333333334</v>
+        <v>6.311623666666667</v>
       </c>
       <c r="N17">
-        <v>19.105636</v>
+        <v>18.934871</v>
       </c>
       <c r="O17">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909023</v>
       </c>
       <c r="P17">
-        <v>0.1035078406055505</v>
+        <v>0.1072092090909024</v>
       </c>
       <c r="Q17">
-        <v>715.6491524308524</v>
+        <v>700.1715286130751</v>
       </c>
       <c r="R17">
-        <v>6440.842371877671</v>
+        <v>6301.543757517677</v>
       </c>
       <c r="S17">
-        <v>0.05954755924852953</v>
+        <v>0.06068744352001571</v>
       </c>
       <c r="T17">
-        <v>0.05954755924852954</v>
+        <v>0.06068744352001572</v>
       </c>
     </row>
   </sheetData>
